--- a/biology/Botanique/Gérard_Bertrand_(rugby_à_XV)/Gérard_Bertrand_(rugby_à_XV).xlsx
+++ b/biology/Botanique/Gérard_Bertrand_(rugby_à_XV)/Gérard_Bertrand_(rugby_à_XV).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Bertrand_(rugby_%C3%A0_XV)</t>
+          <t>Gérard_Bertrand_(rugby_à_XV)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Bertrand, né le 27 janvier 1965 à Narbonne, est un vigneron et entrepreneur français, ancien joueur de rugby à XV.
 Il joue comme troisième ligne aile au RC Narbonne, dont il devient capitaine, et termine sa carrière sportive comme capitaine du Stade français.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Bertrand_(rugby_%C3%A0_XV)</t>
+          <t>Gérard_Bertrand_(rugby_à_XV)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Joueur de rugby</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Troisième ligne, il a joué la plupart de sa carrière au RC Narbonne (1983-1992) remportant 3 challenge Yves du Manoir consécutifs en 1989, 1990 et 1991.
-Il rejoint ensuite le Stade français, dont il est capitaine (1992-1994). Il fait alors monter le club en division B2[1].
-Le 19 juin 1993, il est invité pour jouer avec les Barbarians français contre le XV du Président pour le Centenaire du rugby à Grenoble. Les Baa-Baas s'imposent 92 à 34[2].
+Il rejoint ensuite le Stade français, dont il est capitaine (1992-1994). Il fait alors monter le club en division B2.
+Le 19 juin 1993, il est invité pour jouer avec les Barbarians français contre le XV du Président pour le Centenaire du rugby à Grenoble. Les Baa-Baas s'imposent 92 à 34.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Bertrand_(rugby_%C3%A0_XV)</t>
+          <t>Gérard_Bertrand_(rugby_à_XV)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +560,18 @@
           <t>Entrepreneur vigneron</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Son père meurt accidentellement en 1987, et Gérard Bertrand, qui a alors 22 ans, reprend le domaine familial de Villemajou, dans les Corbières, tout en poursuivant le rugby[3]. 
-« Deux défis me tendent les bras : l'espoir de devenir champion de France, et la révélation du potentiel des vins de notre région. Choisir, c'est renoncer. Je décide de mener de front les deux carrières[4]. »
-Fils du Languedoc et amoureux de sa terre, il travaille à l'augmentation de la qualité de ses vins et veut en être l'ambassadeur : « L’histoire du bordeaux s’est écrite dès 1850, celle du bourgogne depuis le XIe siècle. Celle du Languedoc, elle, reste à écrire !. »[1]
-En trente ans, son domaine est passé de 60 à 750 hectares[5],[4], dont deux tiers sont cultivés en biodynamie. Il est constitué de 15 domaines en Languedoc-Roussillon, dont les vins sont distribués dans 150 pays[6],[7].
-En 2019, la surface du vignoble atteint 920 hectares, et la totalité est cultivée en biodynamie (fin des certifications prévue en 2023)[8].
-Chaque année, il organise un festival de jazz dans son vignoble[9].
-Toujours très proche du monde rugbystique, il est en 2023, un des actionnaires majeurs de son club de coeur, celui du RC Narbonne[10].
+Son père meurt accidentellement en 1987, et Gérard Bertrand, qui a alors 22 ans, reprend le domaine familial de Villemajou, dans les Corbières, tout en poursuivant le rugby. 
+« Deux défis me tendent les bras : l'espoir de devenir champion de France, et la révélation du potentiel des vins de notre région. Choisir, c'est renoncer. Je décide de mener de front les deux carrières. »
+Fils du Languedoc et amoureux de sa terre, il travaille à l'augmentation de la qualité de ses vins et veut en être l'ambassadeur : « L’histoire du bordeaux s’est écrite dès 1850, celle du bourgogne depuis le XIe siècle. Celle du Languedoc, elle, reste à écrire !. »
+En trente ans, son domaine est passé de 60 à 750 hectares dont deux tiers sont cultivés en biodynamie. Il est constitué de 15 domaines en Languedoc-Roussillon, dont les vins sont distribués dans 150 pays,.
+En 2019, la surface du vignoble atteint 920 hectares, et la totalité est cultivée en biodynamie (fin des certifications prévue en 2023).
+Chaque année, il organise un festival de jazz dans son vignoble.
+Toujours très proche du monde rugbystique, il est en 2023, un des actionnaires majeurs de son club de coeur, celui du RC Narbonne.
 </t>
         </is>
       </c>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Bertrand_(rugby_%C3%A0_XV)</t>
+          <t>Gérard_Bertrand_(rugby_à_XV)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 29 décembre 2022, Gérard Bertrand est nommé au grade de chevalier dans l'ordre national de la Légion d'honneur[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 29 décembre 2022, Gérard Bertrand est nommé au grade de chevalier dans l'ordre national de la Légion d'honneur.
 </t>
         </is>
       </c>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Bertrand_(rugby_%C3%A0_XV)</t>
+          <t>Gérard_Bertrand_(rugby_à_XV)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le vin à la belle étoile, Paris, La Martinière, 2015, 201 p. (ISBN 978-2-7324-7069-6, SUDOC 189792396).
 La nature au cœur : pour un monde meilleur, Paris, Albin Michel, coll. « Témoignages », 2021, 192 p. (ISBN 978-2226461667).</t>
